--- a/7.- Rate Risk.xlsx
+++ b/7.- Rate Risk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C77CAC5-AA02-B748-ADF5-FD801F2887DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFA46CC-4C57-5F4E-9223-8EEA3EB01207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t xml:space="preserve">Tenemos un swap cuyo DV01 es de 7,372 pesos </t>
   </si>
@@ -53,13 +53,65 @@
   </si>
   <si>
     <t>¿Cuántos bonos necesito utilizar para estar neutral? ¿Qué posición tomo en la compra/venta de bonos si estoy payer/receiver?</t>
+  </si>
+  <si>
+    <t>El valor de mi bono fluctuará en 0.038 pesos mexicanos.</t>
+  </si>
+  <si>
+    <t>Si Banxico sube o baja las tasas en 1 basis.</t>
+  </si>
+  <si>
+    <t>Si Banxico sube o baja las tasas en 20 basis.</t>
+  </si>
+  <si>
+    <t>El valor de mi swap fluctuará en aprox</t>
+  </si>
+  <si>
+    <t>El valor de mi swap fluctuará en $7,372 mexicanos.</t>
+  </si>
+  <si>
+    <t>El valor de mi bono fluctuará en aprox</t>
+  </si>
+  <si>
+    <t>pesos mexicanos</t>
+  </si>
+  <si>
+    <t>Payer</t>
+  </si>
+  <si>
+    <t>Mi riesgo es que bajen las tasas</t>
+  </si>
+  <si>
+    <t>Entonces, para cubrirme compro bonos</t>
+  </si>
+  <si>
+    <t>Comprar</t>
+  </si>
+  <si>
+    <t>bonos</t>
+  </si>
+  <si>
+    <t>Receiver</t>
+  </si>
+  <si>
+    <t>Mi riesgo es que suban las tasas</t>
+  </si>
+  <si>
+    <t>Entonces, para cubrirme vendo en corto bonos</t>
+  </si>
+  <si>
+    <t>Vendo en corto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,13 +127,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,14 +158,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -696,45 +769,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CB1C4C-048B-B84F-A7DC-1166A1B6FAE8}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <f>7372*20</f>
+        <v>147440</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <f>0.038*20</f>
+        <v>0.76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <f>7372/0.038</f>
+        <v>194000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="4">
+        <f>7372/0.038</f>
+        <v>194000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/7.- Rate Risk.xlsx
+++ b/7.- Rate Risk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFA46CC-4C57-5F4E-9223-8EEA3EB01207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB9DB92-D70C-7543-96C5-F782C4513B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="No.1" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t xml:space="preserve">Tenemos un swap cuyo DV01 es de 7,372 pesos </t>
   </si>
@@ -101,6 +101,123 @@
   </si>
   <si>
     <t>Vendo en corto</t>
+  </si>
+  <si>
+    <t>Banco --&gt; Market Maker</t>
+  </si>
+  <si>
+    <t>Cobertura: Neutralizar riesgos</t>
+  </si>
+  <si>
+    <t>1.- Nuestro riesgo es que las tasas suban.</t>
+  </si>
+  <si>
+    <t>2.- Vender en corto los bonos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.- </t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Settle</t>
+  </si>
+  <si>
+    <t>Tasa Swap</t>
+  </si>
+  <si>
+    <t>Nocional</t>
+  </si>
+  <si>
+    <t>105M</t>
+  </si>
+  <si>
+    <t>Valor del Swap + 1 basis</t>
+  </si>
+  <si>
+    <t>Valor del Swap</t>
+  </si>
+  <si>
+    <t>DV01 Swap</t>
+  </si>
+  <si>
+    <t>Valor del Bono</t>
+  </si>
+  <si>
+    <t>Valor del Bono + 1 basis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuanto cambia el valor del swap en pesos </t>
+  </si>
+  <si>
+    <t>mexicanos por un cambio de 1 basis en la tasa</t>
+  </si>
+  <si>
+    <t>Cuanto cambia el valor del bono en pesos</t>
+  </si>
+  <si>
+    <t>Vender en corto</t>
+  </si>
+  <si>
+    <t>DV01 Bono</t>
+  </si>
+  <si>
+    <t>de la serie MX0MGO0001D6</t>
+  </si>
+  <si>
+    <t>4.- Escenario hipotético: Banxico sube las tasas 10 basis ese mismo día</t>
+  </si>
+  <si>
+    <t>Valor del Swap + 10 basis</t>
+  </si>
+  <si>
+    <t>Valor del Bono + 10 basis</t>
+  </si>
+  <si>
+    <t>PNL</t>
+  </si>
+  <si>
+    <t>PNL (loss)</t>
+  </si>
+  <si>
+    <t>PNL (profit)</t>
+  </si>
+  <si>
+    <t>No es cero ya que la cobertura se hace para 1 basis</t>
+  </si>
+  <si>
+    <t>1.- Que baje la tasa</t>
+  </si>
+  <si>
+    <t>2.- Compramos bonos</t>
+  </si>
+  <si>
+    <t>3.-</t>
+  </si>
+  <si>
+    <t>210M</t>
+  </si>
+  <si>
+    <t>Compramos</t>
+  </si>
+  <si>
+    <t>de la serie MX0MGO000193</t>
+  </si>
+  <si>
+    <t>4.- Escenario Hipotético: Banxico baja las tasas 15 basis</t>
+  </si>
+  <si>
+    <t>Valor del Swap - 15 basis</t>
+  </si>
+  <si>
+    <t>Valor del Bono - 15 basis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNL </t>
+  </si>
+  <si>
+    <t>PNL total</t>
   </si>
 </sst>
 </file>
@@ -111,7 +228,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +250,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -163,13 +286,19 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -378,6 +507,239 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19539</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>97692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>445477</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BA8E3B-C878-007C-9D88-AD586AF5D23E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8567616" y="1856154"/>
+          <a:ext cx="7772400" cy="255391"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>29307</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>169984</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>35169</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AC3F14-CEB0-682A-840F-695551C601D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8577384" y="2168769"/>
+          <a:ext cx="4165600" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>39077</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>820615</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>146505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2F4BF5D-7966-7C89-9619-BE120FE6F118}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3360615"/>
+          <a:ext cx="4972538" cy="693582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>191034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742462</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0E259A-2924-BF82-189E-8D7A076BC5FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4098726"/>
+          <a:ext cx="4894385" cy="2120072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>616975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>125626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>830383</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>109583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD3C935-E270-617C-E2CE-BDAF6A232BA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="65950"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="9313970" y="4861323"/>
+          <a:ext cx="1547034" cy="3407947"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -771,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CB1C4C-048B-B84F-A7DC-1166A1B6FAE8}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -804,32 +1166,30 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f>7372*20</f>
         <v>147440</v>
       </c>
@@ -838,11 +1198,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f>0.038*20</f>
         <v>0.76</v>
       </c>
@@ -856,7 +1215,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -872,7 +1231,7 @@
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f>7372/0.038</f>
         <v>194000</v>
       </c>
@@ -881,7 +1240,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -897,7 +1256,7 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <f>7372/0.038</f>
         <v>194000</v>
       </c>
@@ -913,12 +1272,204 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="G2:K34"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29:K32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="5">
+        <v>48731</v>
+      </c>
+    </row>
+    <row r="10" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="5">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="11" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.10539999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="7">
+        <v>11065000</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="8">
+        <v>87.542699999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="7">
+        <v>11130000</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="8">
+        <v>87.491299999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="9">
+        <f>ABS(H16-H15)</f>
+        <v>65000</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="10">
+        <f>ABS(K16-K15)</f>
+        <v>5.1400000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="11">
+        <f>H18/K18</f>
+        <v>1264591.4396886914</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="I23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="7">
+        <v>11716000</v>
+      </c>
+      <c r="J27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="8">
+        <v>87.03</v>
+      </c>
+    </row>
+    <row r="29" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="9">
+        <f>H15-H27</f>
+        <v>-651000</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="10">
+        <f>(K15-K27)*H22</f>
+        <v>648356.03112838615</v>
+      </c>
+    </row>
+    <row r="32" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="9">
+        <f>H29+K29</f>
+        <v>-2643.968871613848</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -927,14 +1478,173 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="G2:K26"/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="5">
+        <v>46254</v>
+      </c>
+    </row>
+    <row r="7" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="8" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="6">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="7">
+        <v>8430800</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="7">
+        <v>97.034300000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="7">
+        <v>8469100</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="7">
+        <v>97.020399999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="9">
+        <f>ABS(H12-H11)</f>
+        <v>38300</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="10">
+        <f>ABS(K12-K11)</f>
+        <v>1.3900000000006685E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="11">
+        <f>H14/K14</f>
+        <v>2755395.6834519124</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="I17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="7">
+        <v>7855600</v>
+      </c>
+      <c r="J21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="7">
+        <v>97.243200000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="9">
+        <f>H21-H11</f>
+        <v>-575200</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="10">
+        <f>(K21-K11)*H16</f>
+        <v>575602.15827310411</v>
+      </c>
+    </row>
+    <row r="26" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="9">
+        <f>H23+K23</f>
+        <v>402.1582731041126</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
